--- a/bookkeeping/Sprint2 BurnUp.xlsx
+++ b/bookkeeping/Sprint2 BurnUp.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="0" windowWidth="7476" windowHeight="3756" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="3060" yWindow="0" windowWidth="7470" windowHeight="3750" tabRatio="601"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart2" sheetId="8" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="7" r:id="rId2"/>
-    <sheet name="Tasks List" sheetId="1" r:id="rId3"/>
-    <sheet name="Backlog" sheetId="5" r:id="rId4"/>
-    <sheet name="Scrum Board" sheetId="6" r:id="rId5"/>
-    <sheet name="Chart - Burn Up" sheetId="3" r:id="rId6"/>
-    <sheet name="Names-Hours" sheetId="2" r:id="rId7"/>
-    <sheet name="ToDo" sheetId="4" r:id="rId8"/>
+    <sheet name="Tasks List" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="5" r:id="rId2"/>
+    <sheet name="Scrum Board" sheetId="6" r:id="rId3"/>
+    <sheet name="Chart - Burn Up" sheetId="3" r:id="rId4"/>
+    <sheet name="Names-Hours" sheetId="2" r:id="rId5"/>
+    <sheet name="ToDo" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -269,6 +268,24 @@
   </si>
   <si>
     <t>Install and Configure Eclipse</t>
+  </si>
+  <si>
+    <t>Review .SD File contents</t>
+  </si>
+  <si>
+    <t>Review SMILES notation documentations</t>
+  </si>
+  <si>
+    <t>Create DB Schema</t>
+  </si>
+  <si>
+    <t>Design Object Model</t>
+  </si>
+  <si>
+    <t>Present Review of POTRACE Implementatin to the rest of the team</t>
+  </si>
+  <si>
+    <t>Present Review of OpenBable Implementatin to the rest of the team</t>
   </si>
 </sst>
 </file>
@@ -376,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1101,6 +1118,115 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1110,7 +1236,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1293,14 +1419,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1344,12 +1470,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,18 +1482,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,90 +1589,99 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="61" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="58" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="59" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="64" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1497,508 +1704,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tasks List'!$A$20:$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>As a Developer, I need to research possible methods for detecting parenthesis, so I can find the best way to implement parenthesis</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>As a Developer, I need to research methods for submiting end and repeating groups for smile conversion, so I can know how to generate SMILES for different segments</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>As a Developer, I need to have a x32 based development enviroment, so I can modify, compile, and test the application</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tasks List'!$A$46:$A$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="400009304"/>
-        <c:axId val="400010480"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="400009304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="400010480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="400010480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="400009304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tasks List'!$A$20:$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>As a Developer, I need to research possible methods for detecting parenthesis, so I can find the best way to implement parenthesis</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>As a Developer, I need to research methods for submiting end and repeating groups for smile conversion, so I can know how to generate SMILES for different segments</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>As a Developer, I need to have a x32 based development enviroment, so I can modify, compile, and test the application</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tasks List'!$A$46:$A$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="284826344"/>
-        <c:axId val="284826736"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="284826344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="284826736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="284826736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="284826344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2096,7 +1801,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tasks List'!$E$62</c:f>
+              <c:f>'Tasks List'!$E$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2162,7 +1867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tasks List'!$E$59:$K$59</c:f>
+              <c:f>'Tasks List'!$E$66:$K$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2197,7 +1902,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tasks List'!$F$62</c:f>
+              <c:f>'Tasks List'!$F$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2263,30 +1968,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tasks List'!$E$60:$K$60</c:f>
+              <c:f>'Tasks List'!$E$67:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,7 +2003,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tasks List'!$G$62</c:f>
+              <c:f>'Tasks List'!$G$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2367,7 +2072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tasks List'!$E$61:$K$61</c:f>
+              <c:f>'Tasks List'!$E$68:$K$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2375,7 +2080,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,11 +2112,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="251065744"/>
-        <c:axId val="251069272"/>
+        <c:axId val="364935400"/>
+        <c:axId val="366567000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="251065744"/>
+        <c:axId val="364935400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,14 +2159,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251069272"/>
+        <c:crossAx val="366567000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="251069272"/>
+        <c:axId val="366567000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,7 +2203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251065744"/>
+        <c:crossAx val="364935400"/>
         <c:crossesAt val="41548"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2637,1093 +2342,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4265,28 +2884,6 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4296,60 +2893,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660423" cy="6286500"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660423" cy="6286500"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4388,7 +2931,7 @@
       <sheetName val="ToDo"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="8">
           <cell r="A8" t="str">
@@ -4402,10 +2945,32 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tasks List"/>
+      <sheetName val="Backlog"/>
+      <sheetName val="Scrum Board"/>
+      <sheetName val="Chart1"/>
+      <sheetName val="Names-Hours"/>
+      <sheetName val="ToDo"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4674,24 +3239,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="76.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="11" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="53.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
@@ -4702,7 +3267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="D2" s="17" t="s">
@@ -4713,7 +3278,7 @@
       </c>
       <c r="G2" s="68"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>59</v>
       </c>
@@ -4722,27 +3287,27 @@
         <v>Nicholas</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>('Names-Hours'!H3) - (SUMIF(C9:C57,D3,D9:D57))&amp;+"/"&amp;+'Names-Hours'!D3</f>
-        <v>24.5/30</v>
+        <f>('Names-Hours'!H3) - (SUMIF(C9:C64,D3,D9:D64))&amp;+"/"&amp;+'Names-Hours'!D3</f>
+        <v>24/30</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>'Names-Hours'!B5</f>
         <v>Igor</v>
       </c>
       <c r="H3" s="7" t="str">
-        <f>('Names-Hours'!H5) -(SUMIF(C9:C57,G3,D9:D57)) &amp;+"/"&amp;+'Names-Hours'!D5</f>
-        <v>23/30</v>
+        <f>('Names-Hours'!H5) -(SUMIF(C9:C64,G3,D9:D64)) &amp;+"/"&amp;+'Names-Hours'!D5</f>
+        <v>20.5/30</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>'Names-Hours'!B7</f>
         <v>David</v>
       </c>
       <c r="J3" s="7" t="str">
-        <f>('Names-Hours'!H7) -(SUMIF(C9:C57,I3,D9:D57)) &amp;+"/"&amp;+ 'Names-Hours'!D7</f>
-        <v>23/30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>('Names-Hours'!H7) -(SUMIF(C9:C64,I3,D9:D64)) &amp;+"/"&amp;+ 'Names-Hours'!D7</f>
+        <v>22.5/30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>60</v>
       </c>
@@ -4752,46 +3317,46 @@
         <v>Konstantin</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>('Names-Hours'!H4) -(SUMIF(C9:C57,D4,D9:D57))&amp;+"/"&amp;+'Names-Hours'!D4</f>
-        <v>22/30</v>
+        <f>('Names-Hours'!H4) -(SUMIF(C9:C64,D4,D9:D64))&amp;+"/"&amp;+'Names-Hours'!D4</f>
+        <v>18/30</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>'Names-Hours'!B6</f>
         <v>Nathan</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f>('Names-Hours'!H6) -(SUMIF(C9:C57,G4,D9:D57)) &amp;+"/"&amp;+'Names-Hours'!D6</f>
-        <v>24.5/30</v>
+        <f>('Names-Hours'!H6) -(SUMIF(C9:C64,G4,D9:D64)) &amp;+"/"&amp;+'Names-Hours'!D6</f>
+        <v>24/30</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>'Names-Hours'!B8</f>
         <v>Thomas</v>
       </c>
       <c r="J4" s="7" t="str">
-        <f>('Names-Hours'!H8) -(SUMIF(C9:C57,I4,D9:D57)) &amp;+"/"&amp;+ 'Names-Hours'!D8</f>
-        <v>25/30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <f>('Names-Hours'!H8) -(SUMIF(C9:C64,I4,D9:D64)) &amp;+"/"&amp;+ 'Names-Hours'!D8</f>
+        <v>21/30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="D5" s="6" t="str">
         <f>'Names-Hours'!B9</f>
         <v>Mathew</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>('Names-Hours'!H9) -(SUMIF(C9:C58,D5,D9:D58)) &amp;+"/"&amp;+'Names-Hours'!D9</f>
+        <f>('Names-Hours'!H9) -(SUMIF(C9:C65,D5,D9:D65)) &amp;+"/"&amp;+'Names-Hours'!D9</f>
         <v>13/16</v>
       </c>
       <c r="H5" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="79"/>
-      <c r="J5" s="66">
+      <c r="J5" s="64">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
         <v>15</v>
       </c>
@@ -4815,7 +3380,7 @@
       <c r="K7" s="77"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74"/>
       <c r="B8" s="74"/>
       <c r="C8" s="70"/>
@@ -4842,42 +3407,44 @@
         <v>41689</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="31" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
       <c r="B11" s="31" t="s">
         <v>29</v>
       </c>
@@ -4893,8 +3460,8 @@
       <c r="J11" s="29"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+    <row r="12" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
       <c r="B12" s="33" t="s">
         <v>34</v>
       </c>
@@ -4910,43 +3477,55 @@
       <c r="J12" s="39"/>
       <c r="K12" s="40"/>
     </row>
-    <row r="13" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="135"/>
+      <c r="B13" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="B14" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="129">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0.5</v>
+      </c>
       <c r="E15" s="32"/>
       <c r="F15" s="27"/>
       <c r="G15" s="28"/>
@@ -4955,11 +3534,17 @@
       <c r="J15" s="29"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
@@ -4968,13 +3553,17 @@
       <c r="J16" s="39"/>
       <c r="K16" s="40"/>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="32"/>
       <c r="F17" s="27"/>
       <c r="G17" s="28"/>
@@ -4983,11 +3572,17 @@
       <c r="J17" s="29"/>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
+      <c r="B18" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
       <c r="G18" s="38"/>
@@ -4996,11 +3591,17 @@
       <c r="J18" s="39"/>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
+      <c r="B19" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="32"/>
       <c r="F19" s="27"/>
       <c r="G19" s="28"/>
@@ -5009,17 +3610,17 @@
       <c r="J19" s="29"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
-        <v>66</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
       <c r="B20" s="33" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="35"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="36"/>
       <c r="F20" s="37"/>
       <c r="G20" s="38"/>
@@ -5028,66 +3629,76 @@
       <c r="J20" s="39"/>
       <c r="K20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="34" t="s">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="135"/>
+      <c r="B21" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="136"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="140"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="129">
         <v>2</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
       <c r="B23" s="31" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="31" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="35">
+        <v>1</v>
+      </c>
       <c r="E24" s="36"/>
       <c r="F24" s="37"/>
       <c r="G24" s="38"/>
@@ -5096,32 +3707,36 @@
       <c r="J24" s="39"/>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
       <c r="B25" s="31" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="31" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
+      <c r="B26" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="35">
+        <v>1</v>
+      </c>
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
       <c r="G26" s="38"/>
@@ -5130,47 +3745,51 @@
       <c r="J26" s="39"/>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
-      <c r="B29" s="33" t="s">
-        <v>72</v>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="135"/>
+      <c r="B27" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="126">
+        <v>1</v>
+      </c>
+      <c r="E27" s="136"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="140"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="32"/>
@@ -5181,66 +3800,64 @@
       <c r="J29" s="29"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
       <c r="B30" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+      <c r="B32" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
-      <c r="B31" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-      <c r="B33" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="32"/>
@@ -5251,30 +3868,30 @@
       <c r="J33" s="29"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="66"/>
       <c r="B34" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="33" t="s">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="32"/>
@@ -5285,30 +3902,30 @@
       <c r="J35" s="29"/>
       <c r="K35" s="30"/>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
       <c r="B36" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
-      <c r="B37" s="33" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="32"/>
@@ -5319,30 +3936,30 @@
       <c r="J37" s="29"/>
       <c r="K37" s="30"/>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
       <c r="B38" s="33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
-      <c r="B39" s="33" t="s">
-        <v>70</v>
+        <v>23</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="66"/>
+      <c r="B39" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="32"/>
@@ -5353,13 +3970,13 @@
       <c r="J39" s="29"/>
       <c r="K39" s="30"/>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="66"/>
       <c r="B40" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
@@ -5370,47 +3987,49 @@
       <c r="J40" s="39"/>
       <c r="K40" s="40"/>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
-      <c r="B41" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="25" t="s">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="135"/>
+      <c r="B41" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="126"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="140"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="40"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
-      <c r="B42" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="D42" s="129"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="134"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+      <c r="B43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="40"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="81"/>
-      <c r="B43" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="32"/>
@@ -5421,32 +4040,30 @@
       <c r="J43" s="29"/>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="30"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
+      <c r="B44" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="40"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="66"/>
       <c r="B45" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="32"/>
@@ -5457,13 +4074,13 @@
       <c r="J45" s="29"/>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
       <c r="B46" s="33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="36"/>
@@ -5474,330 +4091,465 @@
       <c r="J46" s="39"/>
       <c r="K46" s="40"/>
     </row>
-    <row r="47" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
-      <c r="B47" s="33" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="66"/>
+      <c r="B47" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
+      <c r="B48" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="40"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="66"/>
+      <c r="B49" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="66"/>
+      <c r="B50" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="40"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="66"/>
+      <c r="B51" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="40"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="135"/>
+      <c r="B55" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="126"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="139"/>
+      <c r="J55" s="139"/>
+      <c r="K55" s="140"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="129"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="134"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="66"/>
+      <c r="B57" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="30"/>
+    </row>
+    <row r="58" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C58" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40"/>
+    </row>
+    <row r="59" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="40"/>
-    </row>
-    <row r="48" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81"/>
-      <c r="B48" s="31" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C60" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="30"/>
-    </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="81"/>
-      <c r="B49" s="31" t="s">
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="40"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
+      <c r="B61" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C61" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="40"/>
-    </row>
-    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="81"/>
-      <c r="B50" s="31" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="30"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C62" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="81"/>
-      <c r="B51" s="31" t="s">
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
+      <c r="B63" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C63" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="40"/>
-    </row>
-    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
-      <c r="B52" s="31" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="30"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="135"/>
+      <c r="B64" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C64" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="30"/>
-    </row>
-    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="40"/>
-    </row>
-    <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="30"/>
-    </row>
-    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="40"/>
-    </row>
-    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="30"/>
-    </row>
-    <row r="57" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="65"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="40"/>
-    </row>
-    <row r="58" spans="1:20" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="10">
-        <f>SUM(D9:D57)</f>
+      <c r="D64" s="123"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="145"/>
+    </row>
+    <row r="65" spans="4:20" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="10">
+        <f>SUM(D9:D64)</f>
+        <v>12</v>
+      </c>
+      <c r="E65" s="11" t="str">
+        <f>E66&amp;+ "/" &amp;+ $D$65</f>
+        <v>0/12</v>
+      </c>
+      <c r="F65" s="11" t="str">
+        <f>F66&amp;+ "/" &amp;+ $D$65</f>
+        <v>0/12</v>
+      </c>
+      <c r="G65" s="11" t="str">
+        <f t="shared" ref="G65:K65" si="0">G66&amp;+ "/" &amp;+ $D$65</f>
+        <v>0/12</v>
+      </c>
+      <c r="H65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0/12</v>
+      </c>
+      <c r="I65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0/12</v>
+      </c>
+      <c r="J65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0/12</v>
+      </c>
+      <c r="K65" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>0/12</v>
+      </c>
+    </row>
+    <row r="66" spans="4:20" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
+        <f>SUM(D9:D64)</f>
+        <v>12</v>
+      </c>
+      <c r="E66" s="1">
+        <f>SUM(E9:E64)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="11" t="str">
-        <f>E59&amp;+ "/" &amp;+ $D$58</f>
-        <v>0/0</v>
-      </c>
-      <c r="F58" s="11" t="str">
-        <f>F59&amp;+ "/" &amp;+ $D$58</f>
-        <v>0/0</v>
-      </c>
-      <c r="G58" s="11" t="str">
-        <f t="shared" ref="G58:K58" si="0">G59&amp;+ "/" &amp;+ $D$58</f>
-        <v>0/0</v>
-      </c>
-      <c r="H58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>0/0</v>
-      </c>
-      <c r="I58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>0/0</v>
-      </c>
-      <c r="J58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>0/0</v>
-      </c>
-      <c r="K58" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0/0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="1">
-        <f>SUM(D9:D57)</f>
+      <c r="F66" s="1">
+        <f>SUM(F9:F64)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="1">
-        <f>SUM(E9:E57)</f>
+      <c r="G66" s="1">
+        <f>SUM(G9:G64)+F66</f>
         <v>0</v>
       </c>
-      <c r="F59" s="1">
-        <f>SUM(F9:F57)</f>
+      <c r="H66" s="1">
+        <f>SUM(H9:H64)+G66</f>
         <v>0</v>
       </c>
-      <c r="G59" s="1">
-        <f>SUM(G9:G57)+F59</f>
+      <c r="I66" s="1">
+        <f>SUM(I9:I64)+H66</f>
         <v>0</v>
       </c>
-      <c r="H59" s="1">
-        <f>SUM(H9:H57)+G59</f>
+      <c r="J66" s="1">
+        <f>SUM(J9:J64)+I66</f>
         <v>0</v>
       </c>
-      <c r="I59" s="1">
-        <f>SUM(I9:I57)+H59</f>
+      <c r="K66" s="1">
+        <f>SUM(K9:K64)+J66</f>
         <v>0</v>
       </c>
-      <c r="J59" s="1">
-        <f>SUM(J9:J57)+I59</f>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="4:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <f>D65</f>
+        <v>12</v>
+      </c>
+      <c r="F67" s="1">
+        <f>E67</f>
+        <v>12</v>
+      </c>
+      <c r="G67" s="1">
+        <f>F67</f>
+        <v>12</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:K67" si="1">G67</f>
+        <v>12</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="4:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="K59" s="1">
-        <f>SUM(K9:K57)+J59</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="1"/>
-      <c r="E60" s="1">
-        <f>D58</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <f>E60</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <f>F60</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" ref="H60:K60" si="1">G60</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="1"/>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <f>K60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="1"/>
-      <c r="E62" s="5" t="s">
+      <c r="K68" s="2">
+        <f>K67</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="4:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+      <c r="E69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-    </row>
-    <row r="63" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="81" spans="18:18" x14ac:dyDescent="0.3">
-      <c r="R81" s="2" t="s">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="4:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="88" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R88" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
@@ -5805,13 +4557,19 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A14:A21"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number" error="Please Enter Only Numbers. You may use .5 increments. " sqref="D9:D57">
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number" error="Please Enter Only Numbers. You may use .5 increments. " sqref="D9:D64">
       <formula1>0</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numbers Only" error="Please Enter Only Numbers. You may use .5 increments. " sqref="F9:K57">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numbers Only" error="Please Enter Only Numbers. You may use .5 increments. " sqref="F9:K64">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -5820,18 +4578,24 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Names-Hours'!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C28:C33 C40:C57 C9:C21</xm:sqref>
+          <xm:sqref>C28:C29 C36:C43 C9:C13 C50:C64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]Names-Hours'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C22:C27 C34:C39</xm:sqref>
+          <xm:sqref>C30:C35 C44:C49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[2]Names-Hours'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C14:C27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5843,19 +4607,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
@@ -5863,8 +4627,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
@@ -5878,7 +4642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>37</v>
       </c>
@@ -5888,11 +4652,11 @@
       <c r="C4" s="49">
         <v>20</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>39</v>
       </c>
@@ -5906,7 +4670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>40</v>
       </c>
@@ -5920,7 +4684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>41</v>
       </c>
@@ -5934,7 +4698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>42</v>
       </c>
@@ -5948,7 +4712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>43</v>
       </c>
@@ -5962,7 +4726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>44</v>
       </c>
@@ -5976,7 +4740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>45</v>
       </c>
@@ -5990,7 +4754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>61</v>
       </c>
@@ -6002,7 +4766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>62</v>
       </c>
@@ -6014,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
         <v>64</v>
       </c>
@@ -6026,8 +4790,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>52</v>
       </c>
@@ -6035,7 +4799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="42" t="s">
         <v>46</v>
       </c>
@@ -6049,7 +4813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>31</v>
       </c>
@@ -6063,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>32</v>
       </c>
@@ -6077,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>33</v>
       </c>
@@ -6091,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>36</v>
       </c>
@@ -6105,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>38</v>
       </c>
@@ -6132,557 +4896,529 @@
       <selection activeCell="E15" sqref="E15:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="5" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="12" width="21.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="54"/>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
-    </row>
-    <row r="2" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
+    </row>
+    <row r="2" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="54"/>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="94" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="94" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="str">
+      <c r="L2" s="118"/>
+      <c r="M2" s="119"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="str">
         <f>Backlog!A6</f>
         <v>As a User, I want to be able to detect Par. in Chemical Diagram, so I can work with polymers</v>
       </c>
-      <c r="B3" s="83"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="60">
         <f>Backlog!C6</f>
         <v>20</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
       <c r="G3" s="59"/>
-      <c r="H3" s="102" t="str">
+      <c r="H3" s="92" t="str">
         <f>[1]Backlog!A8</f>
         <v>As a Developer, I need a testing enviroment and test documentation, so I can better contribute to the codebase</v>
       </c>
-      <c r="I3" s="103"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="60">
         <f>[1]Backlog!C8</f>
         <v>20</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="99"/>
       <c r="M3" s="59"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="61" t="str">
         <f>Backlog!B6</f>
         <v>M</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="57"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="61" t="str">
         <f>[1]Backlog!B8</f>
         <v>M</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
       <c r="M4" s="57"/>
     </row>
-    <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87"/>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="62"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="58"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="58"/>
     </row>
-    <row r="6" spans="1:13" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="str">
+    <row r="6" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="str">
         <f>Backlog!A7</f>
         <v>As a User, I want to be able to detect Brackets in Chemical Diagrams, so I can work with polymers</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="60">
         <f>Backlog!C7</f>
         <v>20</v>
       </c>
-      <c r="E6" s="102" t="str">
+      <c r="E6" s="92" t="str">
         <f>Backlog!A5</f>
         <v>As a Developer, I need to understand SMILES notation and .SD file structure, so I can desing the smile data structure.</v>
       </c>
-      <c r="F6" s="103"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="60">
         <f>Backlog!C5</f>
         <v>5</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="59"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
       <c r="M6" s="59"/>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="61" t="str">
         <f>Backlog!B7</f>
         <v>S</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="61" t="str">
         <f>Backlog!B5</f>
         <v>M</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="99"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="57"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="57"/>
     </row>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="62"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="62"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="58"/>
     </row>
-    <row r="9" spans="1:13" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="str">
+    <row r="9" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="str">
         <f>Backlog!A8</f>
         <v>As a User, I want to be able to detect subscripts for polymer diagrams, so I can work with polymers</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="60">
         <f>Backlog!C8</f>
         <v>13</v>
       </c>
-      <c r="E9" s="102" t="str">
+      <c r="E9" s="92" t="str">
         <f>Backlog!A10</f>
         <v>As a User, I want to have a data structure for encoding polymers in “Smile Notation”, so I can work with polymers</v>
       </c>
-      <c r="F9" s="103"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="60">
         <f>Backlog!C10</f>
         <v>13</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="59"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="59"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="61" t="str">
         <f>Backlog!B8</f>
         <v>M</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="61" t="str">
         <f>Backlog!B10</f>
         <v>M</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="57"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="62"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="58"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
       <c r="M11" s="58"/>
     </row>
-    <row r="12" spans="1:13" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="str">
+    <row r="12" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="str">
         <f>Backlog!A9</f>
         <v>As a User, I want to be able to detect “R-Notation”, so I can work with polymers</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="60" t="str">
         <f>Backlog!C9</f>
         <v>INF</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="80" t="str">
         <f>Backlog!A12</f>
         <v>As a Developer, I need to understand the POTRACE library, so I can understand how to leverage it and work around it</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="60">
         <f>Backlog!C12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="59"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="59"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="61" t="str">
         <f>Backlog!B9</f>
         <v>W</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="61" t="str">
         <f>Backlog!B12</f>
         <v>M</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="57"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="57"/>
     </row>
-    <row r="14" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="63"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="58"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="58"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
       <c r="M14" s="58"/>
     </row>
-    <row r="15" spans="1:13" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="str">
+    <row r="15" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="str">
         <f>Backlog!A11</f>
         <v>As a User, I need an .SD files from the diagram for each sub molecule in the diagram, so I can work with polymers</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="60">
         <f>Backlog!C11</f>
         <v>5</v>
       </c>
-      <c r="E15" s="82" t="str">
+      <c r="E15" s="80" t="str">
         <f>Backlog!A13</f>
         <v>As a Developer, I need to understand the OpenBable library, so I can understand how to leverage it and work around it</v>
       </c>
-      <c r="F15" s="83"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="60">
         <f>Backlog!C13</f>
         <v>0</v>
       </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="59"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="59"/>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="85"/>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="61" t="str">
         <f>Backlog!B11</f>
         <v>S</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="61" t="str">
         <f>Backlog!B13</f>
         <v>M</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="57"/>
     </row>
-    <row r="17" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="58"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="62"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="58"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103"/>
       <c r="M17" s="58"/>
     </row>
-    <row r="18" spans="1:13" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
+    <row r="18" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="60"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="59"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
       <c r="J18" s="59"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="59"/>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="61"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="57"/>
     </row>
-    <row r="20" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119"/>
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="62"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="58"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="103"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="58"/>
     </row>
-    <row r="21" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
+    <row r="21" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="60"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="59"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
       <c r="J21" s="59"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="59"/>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="61"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="57"/>
     </row>
-    <row r="23" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="118"/>
-      <c r="B23" s="119"/>
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="62"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
       <c r="G23" s="58"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="101"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="58"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="58"/>
     </row>
-    <row r="24" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
+    <row r="24" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="60"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="59"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="59"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
       <c r="M24" s="59"/>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="61"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
       <c r="J25" s="57"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="57"/>
     </row>
-    <row r="26" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="62"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="58"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="101"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
       <c r="J26" s="58"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="58"/>
     </row>
-    <row r="27" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
+    <row r="27" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="60"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="60"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
       <c r="J27" s="59"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="99"/>
       <c r="M27" s="59"/>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="61"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="61"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="101"/>
       <c r="J28" s="57"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="101"/>
       <c r="M28" s="57"/>
     </row>
-    <row r="29" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
+    <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="90"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="62"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="62"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="101"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="103"/>
       <c r="J29" s="58"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="101"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="103"/>
       <c r="M29" s="58"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="E24:F26"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="K12:L14"/>
-    <mergeCell ref="H15:I17"/>
-    <mergeCell ref="E27:F29"/>
-    <mergeCell ref="K6:L8"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="H18:I20"/>
-    <mergeCell ref="K21:L23"/>
-    <mergeCell ref="K24:L26"/>
-    <mergeCell ref="K27:L29"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="H27:I29"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="A6:B8"/>
     <mergeCell ref="A9:B11"/>
@@ -6696,6 +5432,34 @@
     <mergeCell ref="H12:I14"/>
     <mergeCell ref="H3:I5"/>
     <mergeCell ref="K3:L5"/>
+    <mergeCell ref="K21:L23"/>
+    <mergeCell ref="K24:L26"/>
+    <mergeCell ref="K27:L29"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="E24:F26"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="H15:I17"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="H18:I20"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="K12:L14"/>
+    <mergeCell ref="K6:L8"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A24:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6709,20 +5473,20 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -6743,7 +5507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6768,7 +5532,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6793,7 +5557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -6818,7 +5582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
@@ -6843,7 +5607,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -6868,7 +5632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -6893,7 +5657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -6931,18 +5695,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="120">
         <v>41557</v>
       </c>
@@ -6950,7 +5714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="120"/>
       <c r="B3" t="s">
         <v>19</v>

--- a/bookkeeping/Sprint2 BurnUp.xlsx
+++ b/bookkeeping/Sprint2 BurnUp.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst_000\Documents\GitHub\UCSC-IBM-POSRA\bookkeeping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3060" yWindow="0" windowWidth="7470" windowHeight="3750" tabRatio="601"/>
   </bookViews>
@@ -23,7 +18,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
   <si>
     <t>Task</t>
   </si>
@@ -123,9 +118,6 @@
     <t>Create build/test server in windows</t>
   </si>
   <si>
-    <t>Create initial test cases</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
@@ -240,21 +232,9 @@
     <t>Review implementation of POTRACE in OSRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Brain Storm methods ( Point Dencity, Detect as character) </t>
-  </si>
-  <si>
     <t>Review implementation of OpenBabel in OSRA</t>
   </si>
   <si>
-    <t>Brain Storm methods for submiting segments</t>
-  </si>
-  <si>
-    <t>Try Various brainstormed methods for submiting segments</t>
-  </si>
-  <si>
-    <t>Try Various brainstormed methods for detecting parenthesis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Install Cygwin, and all need libraries </t>
   </si>
   <si>
@@ -286,6 +266,15 @@
   </si>
   <si>
     <t>Present Review of OpenBable Implementatin to the rest of the team</t>
+  </si>
+  <si>
+    <t>Create initial test cases for current functionality</t>
+  </si>
+  <si>
+    <t>Brain Storm, and implement methods for submiting segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain Storm, and implement  methods ( Point Dencity, Detect as character) </t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1414,92 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="61" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="58" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="59" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="64" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1470,6 +1543,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,12 +1561,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,42 +1645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,122 +1669,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="61" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="58" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="59" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="64" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1759,26 +1748,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1801,7 +1770,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tasks List'!$E$69</c:f>
+              <c:f>'Tasks List'!$E$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1867,7 +1836,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tasks List'!$E$66:$K$66</c:f>
+              <c:f>'Tasks List'!$E$62:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1902,7 +1871,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tasks List'!$F$69</c:f>
+              <c:f>'Tasks List'!$F$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1968,30 +1937,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tasks List'!$E$67:$K$67</c:f>
+              <c:f>'Tasks List'!$E$63:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,7 +1972,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tasks List'!$G$69</c:f>
+              <c:f>'Tasks List'!$G$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2072,7 +2041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tasks List'!$E$68:$K$68</c:f>
+              <c:f>'Tasks List'!$E$64:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2080,7 +2049,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,11 +2081,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="364935400"/>
-        <c:axId val="366567000"/>
+        <c:axId val="46910848"/>
+        <c:axId val="46912640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="364935400"/>
+        <c:axId val="46910848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,14 +2128,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366567000"/>
+        <c:crossAx val="46912640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="366567000"/>
+        <c:axId val="46912640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364935400"/>
+        <c:crossAx val="46910848"/>
         <c:crossesAt val="41548"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2969,6 +2938,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
     </sheetDataSet>
@@ -3231,7 +3201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3239,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>26</v>
@@ -3273,43 +3243,43 @@
       <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>'Names-Hours'!B3</f>
         <v>Nicholas</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>('Names-Hours'!H3) - (SUMIF(C9:C64,D3,D9:D64))&amp;+"/"&amp;+'Names-Hours'!D3</f>
-        <v>24/30</v>
+        <f>('Names-Hours'!H3) - (SUMIF(C9:C60,D3,D9:D60))&amp;+"/"&amp;+'Names-Hours'!D3</f>
+        <v>6/30</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>'Names-Hours'!B5</f>
         <v>Igor</v>
       </c>
       <c r="H3" s="7" t="str">
-        <f>('Names-Hours'!H5) -(SUMIF(C9:C64,G3,D9:D64)) &amp;+"/"&amp;+'Names-Hours'!D5</f>
-        <v>20.5/30</v>
+        <f>('Names-Hours'!H5) -(SUMIF(C9:C60,G3,D9:D60)) &amp;+"/"&amp;+'Names-Hours'!D5</f>
+        <v>2/30</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>'Names-Hours'!B7</f>
         <v>David</v>
       </c>
       <c r="J3" s="7" t="str">
-        <f>('Names-Hours'!H7) -(SUMIF(C9:C64,I3,D9:D64)) &amp;+"/"&amp;+ 'Names-Hours'!D7</f>
-        <v>22.5/30</v>
+        <f>('Names-Hours'!H7) -(SUMIF(C9:C60,I3,D9:D60)) &amp;+"/"&amp;+ 'Names-Hours'!D7</f>
+        <v>9.5/30</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="6" t="str">
@@ -3317,24 +3287,24 @@
         <v>Konstantin</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>('Names-Hours'!H4) -(SUMIF(C9:C64,D4,D9:D64))&amp;+"/"&amp;+'Names-Hours'!D4</f>
-        <v>18/30</v>
+        <f>('Names-Hours'!H4) -(SUMIF(C9:C60,D4,D9:D60))&amp;+"/"&amp;+'Names-Hours'!D4</f>
+        <v>1.5/30</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>'Names-Hours'!B6</f>
         <v>Nathan</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f>('Names-Hours'!H6) -(SUMIF(C9:C64,G4,D9:D64)) &amp;+"/"&amp;+'Names-Hours'!D6</f>
-        <v>24/30</v>
+        <f>('Names-Hours'!H6) -(SUMIF(C9:C60,G4,D9:D60)) &amp;+"/"&amp;+'Names-Hours'!D6</f>
+        <v>8/30</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>'Names-Hours'!B8</f>
         <v>Thomas</v>
       </c>
       <c r="J4" s="7" t="str">
-        <f>('Names-Hours'!H8) -(SUMIF(C9:C64,I4,D9:D64)) &amp;+"/"&amp;+ 'Names-Hours'!D8</f>
-        <v>21/30</v>
+        <f>('Names-Hours'!H8) -(SUMIF(C9:C60,I4,D9:D60)) &amp;+"/"&amp;+ 'Names-Hours'!D8</f>
+        <v>2.5/30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3344,47 +3314,47 @@
         <v>Mathew</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>('Names-Hours'!H9) -(SUMIF(C9:C65,D5,D9:D65)) &amp;+"/"&amp;+'Names-Hours'!D9</f>
-        <v>13/16</v>
-      </c>
-      <c r="H5" s="78" t="s">
+        <f>('Names-Hours'!H9) -(SUMIF(C9:C61,D5,D9:D61)) &amp;+"/"&amp;+'Names-Hours'!D9</f>
+        <v>0/16</v>
+      </c>
+      <c r="H5" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="79"/>
+      <c r="I5" s="102"/>
       <c r="J5" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="94" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="72"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="9">
         <v>41675</v>
       </c>
@@ -3408,8 +3378,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>37</v>
+      <c r="A9" s="103" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>28</v>
@@ -3417,7 +3387,9 @@
       <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
       <c r="E9" s="32"/>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
@@ -3427,14 +3399,16 @@
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="35">
+        <v>1</v>
+      </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
@@ -3444,14 +3418,16 @@
       <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="31" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26">
+        <v>0.5</v>
+      </c>
       <c r="E11" s="32"/>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
@@ -3461,14 +3437,16 @@
       <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
@@ -3478,47 +3456,49 @@
       <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="135"/>
-      <c r="B13" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="125" t="s">
+      <c r="A13" s="104"/>
+      <c r="B13" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="140"/>
+      <c r="D13" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="128" t="s">
+      <c r="A14" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="74">
         <v>0.5</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>24</v>
@@ -3535,9 +3515,9 @@
       <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>2</v>
@@ -3554,9 +3534,9 @@
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>21</v>
@@ -3573,9 +3553,9 @@
       <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>22</v>
@@ -3592,9 +3572,9 @@
       <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>23</v>
@@ -3611,12 +3591,12 @@
       <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="35">
         <v>0.5</v>
@@ -3630,55 +3610,55 @@
       <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135"/>
-      <c r="B21" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="125" t="s">
+      <c r="A21" s="104"/>
+      <c r="B21" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="126">
+      <c r="D21" s="71">
         <v>0.5</v>
       </c>
-      <c r="E21" s="136"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="140"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="128" t="s">
+      <c r="A22" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="129">
-        <v>2</v>
-      </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="134"/>
+      <c r="D22" s="74">
+        <v>1</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="27"/>
@@ -3689,9 +3669,9 @@
       <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>22</v>
@@ -3708,243 +3688,263 @@
       <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35">
+        <v>2</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="103"/>
+      <c r="B26" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="103"/>
+      <c r="B27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="35">
+        <v>2</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="104"/>
+      <c r="B28" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="71">
+        <v>2</v>
+      </c>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="74">
+        <v>2</v>
+      </c>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="103"/>
+      <c r="B30" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="26">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="103"/>
+      <c r="B31" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C31" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="35">
+        <v>7</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="26">
+        <v>8</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="103"/>
+      <c r="B33" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="35">
+        <v>7</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="103"/>
+      <c r="B34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="26">
+        <v>8</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="103"/>
+      <c r="B35" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="103"/>
+      <c r="B36" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D36" s="26">
+        <v>8</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="103"/>
+      <c r="B37" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="35">
+        <v>8</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="103"/>
+      <c r="B38" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="35">
         <v>1</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="35">
-        <v>1</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="124" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="125" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="126">
-        <v>1</v>
-      </c>
-      <c r="E27" s="136"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="140"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="134"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="37"/>
       <c r="G38" s="38"/>
@@ -3953,85 +3953,95 @@
       <c r="J38" s="39"/>
       <c r="K38" s="40"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="34" t="s">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="104"/>
+      <c r="B39" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="71">
+        <v>1</v>
+      </c>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="84"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="74">
+        <v>2</v>
+      </c>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="103"/>
+      <c r="B41" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="40"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="135"/>
-      <c r="B41" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="140"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="128" t="s">
+      <c r="D41" s="26">
         <v>2</v>
       </c>
-      <c r="D42" s="129"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="134"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="103"/>
+      <c r="B42" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="35">
+        <v>4</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="31" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="26">
+        <v>4</v>
+      </c>
       <c r="E43" s="32"/>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
@@ -4041,14 +4051,16 @@
       <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D44" s="35">
+        <v>5</v>
+      </c>
       <c r="E44" s="36"/>
       <c r="F44" s="37"/>
       <c r="G44" s="38"/>
@@ -4058,14 +4070,16 @@
       <c r="K44" s="40"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="31" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="D45" s="26">
+        <v>5</v>
+      </c>
       <c r="E45" s="32"/>
       <c r="F45" s="27"/>
       <c r="G45" s="28"/>
@@ -4075,14 +4089,16 @@
       <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="D46" s="35">
+        <v>5</v>
+      </c>
       <c r="E46" s="36"/>
       <c r="F46" s="37"/>
       <c r="G46" s="38"/>
@@ -4092,14 +4108,16 @@
       <c r="K46" s="40"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="31" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="D47" s="26">
+        <v>5</v>
+      </c>
       <c r="E47" s="32"/>
       <c r="F47" s="27"/>
       <c r="G47" s="28"/>
@@ -4109,14 +4127,16 @@
       <c r="K47" s="30"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="D48" s="35">
+        <v>5</v>
+      </c>
       <c r="E48" s="36"/>
       <c r="F48" s="37"/>
       <c r="G48" s="38"/>
@@ -4125,83 +4145,95 @@
       <c r="J48" s="39"/>
       <c r="K48" s="40"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="25" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="103"/>
+      <c r="B49" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="35">
+        <v>1</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="40"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="104"/>
+      <c r="B50" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="71">
+        <v>1</v>
+      </c>
+      <c r="E50" s="80"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="84"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="40"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="25" t="s">
+      <c r="D51" s="74">
+        <v>1</v>
+      </c>
+      <c r="E51" s="75"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="79"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="103"/>
+      <c r="B52" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="103"/>
+      <c r="B53" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="40"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="26"/>
+      <c r="D53" s="26">
+        <v>1</v>
+      </c>
       <c r="E53" s="32"/>
       <c r="F53" s="27"/>
       <c r="G53" s="28"/>
@@ -4210,15 +4242,17 @@
       <c r="J53" s="29"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
+    <row r="54" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="103"/>
       <c r="B54" s="33" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="D54" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E54" s="36"/>
       <c r="F54" s="37"/>
       <c r="G54" s="38"/>
@@ -4227,51 +4261,55 @@
       <c r="J54" s="39"/>
       <c r="K54" s="40"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="135"/>
-      <c r="B55" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="126"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="139"/>
-      <c r="J55" s="139"/>
-      <c r="K55" s="140"/>
-    </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="128" t="s">
+    <row r="55" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="103"/>
+      <c r="B55" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="32"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="103"/>
+      <c r="B56" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="129"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="134"/>
-    </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="D56" s="35">
+        <v>1</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="40"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="103"/>
       <c r="B57" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="26">
+        <v>1</v>
+      </c>
       <c r="E57" s="32"/>
       <c r="F57" s="27"/>
       <c r="G57" s="28"/>
@@ -4280,15 +4318,17 @@
       <c r="J57" s="29"/>
       <c r="K57" s="30"/>
     </row>
-    <row r="58" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="103"/>
       <c r="B58" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="35"/>
+      <c r="D58" s="35">
+        <v>1.5</v>
+      </c>
       <c r="E58" s="36"/>
       <c r="F58" s="37"/>
       <c r="G58" s="38"/>
@@ -4297,15 +4337,17 @@
       <c r="J58" s="39"/>
       <c r="K58" s="40"/>
     </row>
-    <row r="59" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="103"/>
       <c r="B59" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="26"/>
+      <c r="D59" s="26">
+        <v>1.5</v>
+      </c>
       <c r="E59" s="32"/>
       <c r="F59" s="27"/>
       <c r="G59" s="28"/>
@@ -4314,242 +4356,182 @@
       <c r="J59" s="29"/>
       <c r="K59" s="30"/>
     </row>
-    <row r="60" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="40"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="30"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
-      <c r="B62" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="40"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="66"/>
-      <c r="B63" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="30"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="135"/>
-      <c r="B64" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="122" t="s">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="104"/>
+      <c r="B60" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="123"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="142"/>
-      <c r="G64" s="143"/>
-      <c r="H64" s="143"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="144"/>
-      <c r="K64" s="145"/>
-    </row>
-    <row r="65" spans="4:20" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="10">
-        <f>SUM(D9:D64)</f>
-        <v>12</v>
-      </c>
-      <c r="E65" s="11" t="str">
-        <f>E66&amp;+ "/" &amp;+ $D$65</f>
-        <v>0/12</v>
-      </c>
-      <c r="F65" s="11" t="str">
-        <f>F66&amp;+ "/" &amp;+ $D$65</f>
-        <v>0/12</v>
-      </c>
-      <c r="G65" s="11" t="str">
-        <f t="shared" ref="G65:K65" si="0">G66&amp;+ "/" &amp;+ $D$65</f>
-        <v>0/12</v>
-      </c>
-      <c r="H65" s="11" t="str">
+      <c r="D60" s="68">
+        <v>1</v>
+      </c>
+      <c r="E60" s="85"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="89"/>
+    </row>
+    <row r="61" spans="1:12" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="10">
+        <f>SUM(D9:D60)</f>
+        <v>127.5</v>
+      </c>
+      <c r="E61" s="11" t="str">
+        <f>E62&amp;+ "/" &amp;+ $D$61</f>
+        <v>0/127.5</v>
+      </c>
+      <c r="F61" s="11" t="str">
+        <f>F62&amp;+ "/" &amp;+ $D$61</f>
+        <v>0/127.5</v>
+      </c>
+      <c r="G61" s="11" t="str">
+        <f t="shared" ref="G61:K61" si="0">G62&amp;+ "/" &amp;+ $D$61</f>
+        <v>0/127.5</v>
+      </c>
+      <c r="H61" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0/12</v>
-      </c>
-      <c r="I65" s="11" t="str">
+        <v>0/127.5</v>
+      </c>
+      <c r="I61" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0/12</v>
-      </c>
-      <c r="J65" s="11" t="str">
+        <v>0/127.5</v>
+      </c>
+      <c r="J61" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>0/12</v>
-      </c>
-      <c r="K65" s="12" t="str">
+        <v>0/127.5</v>
+      </c>
+      <c r="K61" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>0/12</v>
-      </c>
-    </row>
-    <row r="66" spans="4:20" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="1">
-        <f>SUM(D9:D64)</f>
-        <v>12</v>
-      </c>
-      <c r="E66" s="1">
-        <f>SUM(E9:E64)</f>
+        <v>0/127.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <f>SUM(D9:D60)</f>
+        <v>127.5</v>
+      </c>
+      <c r="E62" s="1">
+        <f>SUM(E9:E60)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="1">
-        <f>SUM(F9:F64)</f>
+      <c r="F62" s="1">
+        <f>SUM(F9:F60)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="1">
-        <f>SUM(G9:G64)+F66</f>
+      <c r="G62" s="1">
+        <f>SUM(G9:G60)+F62</f>
         <v>0</v>
       </c>
-      <c r="H66" s="1">
-        <f>SUM(H9:H64)+G66</f>
+      <c r="H62" s="1">
+        <f>SUM(H9:H60)+G62</f>
         <v>0</v>
       </c>
-      <c r="I66" s="1">
-        <f>SUM(I9:I64)+H66</f>
+      <c r="I62" s="1">
+        <f>SUM(I9:I60)+H62</f>
         <v>0</v>
       </c>
-      <c r="J66" s="1">
-        <f>SUM(J9:J64)+I66</f>
+      <c r="J62" s="1">
+        <f>SUM(J9:J60)+I62</f>
         <v>0</v>
       </c>
-      <c r="K66" s="1">
-        <f>SUM(K9:K64)+J66</f>
+      <c r="K62" s="1">
+        <f>SUM(K9:K60)+J62</f>
         <v>0</v>
       </c>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="4:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1">
-        <f>D65</f>
-        <v>12</v>
-      </c>
-      <c r="F67" s="1">
-        <f>E67</f>
-        <v>12</v>
-      </c>
-      <c r="G67" s="1">
-        <f>F67</f>
-        <v>12</v>
-      </c>
-      <c r="H67" s="1">
-        <f t="shared" ref="H67:K67" si="1">G67</f>
-        <v>12</v>
-      </c>
-      <c r="I67" s="1">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <f>D61</f>
+        <v>127.5</v>
+      </c>
+      <c r="F63" s="1">
+        <f>E63</f>
+        <v>127.5</v>
+      </c>
+      <c r="G63" s="1">
+        <f>F63</f>
+        <v>127.5</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" ref="H63:K63" si="1">G63</f>
+        <v>127.5</v>
+      </c>
+      <c r="I63" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J67" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="J63" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K67" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="K63" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="4:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="1"/>
-      <c r="E68" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
         <v>0</v>
       </c>
-      <c r="K68" s="2">
-        <f>K67</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="4:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="1"/>
-      <c r="E69" s="5" t="s">
+      <c r="K64" s="2">
+        <f>K63</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+      <c r="E65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-    </row>
-    <row r="70" spans="4:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="88" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R88" s="2" t="s">
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="4:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="84" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R84" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A14:A21"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
@@ -4557,19 +4539,13 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number" error="Please Enter Only Numbers. You may use .5 increments. " sqref="D9:D64">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number" error="Please Enter Only Numbers. You may use .5 increments. " sqref="D9:D60">
       <formula1>0</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numbers Only" error="Please Enter Only Numbers. You may use .5 increments. " sqref="F9:K64">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numbers Only" error="Please Enter Only Numbers. You may use .5 increments. " sqref="F9:K60">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -4583,19 +4559,19 @@
           <x14:formula1>
             <xm:f>'Names-Hours'!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C28:C29 C36:C43 C9:C13 C50:C64</xm:sqref>
+          <xm:sqref>C29:C30 C9:C13 C48:C60 C37:C41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]Names-Hours'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C30:C35 C44:C49</xm:sqref>
+          <xm:sqref>C31:C36 C42:C47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[2]Names-Hours'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C14:C27</xm:sqref>
+          <xm:sqref>C14:C28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4621,7 +4597,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>26</v>
@@ -4630,38 +4606,38 @@
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="49">
         <v>20</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="49">
         <v>5</v>
@@ -4672,10 +4648,10 @@
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="49">
         <v>20</v>
@@ -4686,10 +4662,10 @@
     </row>
     <row r="7" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="49">
         <v>20</v>
@@ -4700,10 +4676,10 @@
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="49">
         <v>13</v>
@@ -4714,24 +4690,24 @@
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="49">
         <v>13</v>
@@ -4742,10 +4718,10 @@
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="51">
         <v>5</v>
@@ -4756,10 +4732,10 @@
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52">
@@ -4768,10 +4744,10 @@
     </row>
     <row r="13" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="52">
@@ -4780,10 +4756,10 @@
     </row>
     <row r="14" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52">
@@ -4793,7 +4769,7 @@
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -4801,24 +4777,24 @@
     </row>
     <row r="19" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="47">
         <v>13</v>
@@ -4829,10 +4805,10 @@
     </row>
     <row r="21" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="49">
         <v>20</v>
@@ -4843,10 +4819,10 @@
     </row>
     <row r="22" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="49">
         <v>5</v>
@@ -4857,10 +4833,10 @@
     </row>
     <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="49">
         <v>5</v>
@@ -4871,10 +4847,10 @@
     </row>
     <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="49">
         <v>13</v>
@@ -4909,516 +4885,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
+      <c r="A1" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="54"/>
-      <c r="E1" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
+      <c r="E1" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="119"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="54"/>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="118" t="s">
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="118"/>
-      <c r="M2" s="119"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="str">
+      <c r="A3" s="105" t="str">
         <f>Backlog!A6</f>
         <v>As a User, I want to be able to detect Par. in Chemical Diagram, so I can work with polymers</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="60">
         <f>Backlog!C6</f>
         <v>20</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="120"/>
       <c r="G3" s="59"/>
-      <c r="H3" s="92" t="str">
+      <c r="H3" s="125" t="str">
         <f>[1]Backlog!A8</f>
         <v>As a Developer, I need a testing enviroment and test documentation, so I can better contribute to the codebase</v>
       </c>
-      <c r="I3" s="93"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="60">
         <f>[1]Backlog!C8</f>
         <v>20</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
       <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="61" t="str">
         <f>Backlog!B6</f>
         <v>M</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
       <c r="G4" s="57"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
       <c r="J4" s="61" t="str">
         <f>[1]Backlog!B8</f>
         <v>M</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="122"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="62"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="58"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="130"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
       <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="str">
+      <c r="A6" s="105" t="str">
         <f>Backlog!A7</f>
         <v>As a User, I want to be able to detect Brackets in Chemical Diagrams, so I can work with polymers</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="60">
         <f>Backlog!C7</f>
         <v>20</v>
       </c>
-      <c r="E6" s="92" t="str">
+      <c r="E6" s="125" t="str">
         <f>Backlog!A5</f>
         <v>As a Developer, I need to understand SMILES notation and .SD file structure, so I can desing the smile data structure.</v>
       </c>
-      <c r="F6" s="93"/>
+      <c r="F6" s="126"/>
       <c r="G6" s="60">
         <f>Backlog!C5</f>
         <v>5</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
       <c r="J6" s="59"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="120"/>
       <c r="M6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="61" t="str">
         <f>Backlog!B7</f>
         <v>S</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="61" t="str">
         <f>Backlog!B5</f>
         <v>M</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
       <c r="J7" s="57"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="101"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="62"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="62"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="str">
+      <c r="A9" s="105" t="str">
         <f>Backlog!A8</f>
         <v>As a User, I want to be able to detect subscripts for polymer diagrams, so I can work with polymers</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="60">
         <f>Backlog!C8</f>
         <v>13</v>
       </c>
-      <c r="E9" s="92" t="str">
+      <c r="E9" s="125" t="str">
         <f>Backlog!A10</f>
         <v>As a User, I want to have a data structure for encoding polymers in “Smile Notation”, so I can work with polymers</v>
       </c>
-      <c r="F9" s="93"/>
+      <c r="F9" s="126"/>
       <c r="G9" s="60">
         <f>Backlog!C10</f>
         <v>13</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="59"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="59"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="61" t="str">
         <f>Backlog!B8</f>
         <v>M</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
       <c r="G10" s="61" t="str">
         <f>Backlog!B10</f>
         <v>M</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="57"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="62"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="58"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
       <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="str">
+      <c r="A12" s="105" t="str">
         <f>Backlog!A9</f>
         <v>As a User, I want to be able to detect “R-Notation”, so I can work with polymers</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="60" t="str">
         <f>Backlog!C9</f>
         <v>INF</v>
       </c>
-      <c r="E12" s="80" t="str">
+      <c r="E12" s="105" t="str">
         <f>Backlog!A12</f>
         <v>As a Developer, I need to understand the POTRACE library, so I can understand how to leverage it and work around it</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="60">
         <f>Backlog!C12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
       <c r="J12" s="59"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="99"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="120"/>
       <c r="M12" s="59"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="61" t="str">
         <f>Backlog!B9</f>
         <v>W</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="61" t="str">
         <f>Backlog!B12</f>
         <v>M</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="57"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="63"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="58"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="58"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="103"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="124"/>
       <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="str">
+      <c r="A15" s="105" t="str">
         <f>Backlog!A11</f>
         <v>As a User, I need an .SD files from the diagram for each sub molecule in the diagram, so I can work with polymers</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="60">
         <f>Backlog!C11</f>
         <v>5</v>
       </c>
-      <c r="E15" s="80" t="str">
+      <c r="E15" s="105" t="str">
         <f>Backlog!A13</f>
         <v>As a Developer, I need to understand the OpenBable library, so I can understand how to leverage it and work around it</v>
       </c>
-      <c r="F15" s="81"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="60">
         <f>Backlog!C13</f>
         <v>0</v>
       </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
       <c r="J15" s="59"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="120"/>
       <c r="M15" s="59"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="61" t="str">
         <f>Backlog!B11</f>
         <v>S</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="61" t="str">
         <f>Backlog!B13</f>
         <v>M</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
       <c r="M16" s="57"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="58"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="62"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
       <c r="J17" s="58"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="103"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
       <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:13" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="60"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="59"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="59"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="59"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="61"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="101"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="122"/>
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="62"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="103"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="58"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="103"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="103"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
       <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="60"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="59"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
       <c r="J21" s="59"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="59"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="61"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="122"/>
       <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="62"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="58"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
       <c r="J23" s="58"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="103"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
       <c r="M23" s="58"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="132"/>
       <c r="C24" s="60"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="59"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="59"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
       <c r="M24" s="59"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="61"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="101"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="122"/>
       <c r="J25" s="57"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="101"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="122"/>
       <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="62"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="124"/>
       <c r="G26" s="58"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="58"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="103"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="124"/>
       <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="60"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="107"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="60"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
       <c r="J27" s="59"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="99"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="120"/>
       <c r="M27" s="59"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="61"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="61"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="101"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
       <c r="J28" s="57"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="122"/>
       <c r="M28" s="57"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="62"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="144"/>
       <c r="G29" s="62"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="103"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="124"/>
       <c r="J29" s="58"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="103"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="124"/>
       <c r="M29" s="58"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="K12:L14"/>
+    <mergeCell ref="K6:L8"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="E24:F26"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="H15:I17"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="H18:I20"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="K21:L23"/>
+    <mergeCell ref="K24:L26"/>
+    <mergeCell ref="K27:L29"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="H27:I29"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="A6:B8"/>
     <mergeCell ref="A9:B11"/>
@@ -5432,34 +5436,6 @@
     <mergeCell ref="H12:I14"/>
     <mergeCell ref="H3:I5"/>
     <mergeCell ref="K3:L5"/>
-    <mergeCell ref="K21:L23"/>
-    <mergeCell ref="K24:L26"/>
-    <mergeCell ref="K27:L29"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="E24:F26"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="H15:I17"/>
-    <mergeCell ref="E27:F29"/>
-    <mergeCell ref="H18:I20"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="K12:L14"/>
-    <mergeCell ref="K6:L8"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="A24:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5470,7 +5446,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5609,7 +5585,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>15</v>
@@ -5659,7 +5635,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -5707,7 +5683,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="120">
+      <c r="A2" s="145">
         <v>41557</v>
       </c>
       <c r="B2" t="s">
@@ -5715,7 +5691,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
+      <c r="A3" s="145"/>
       <c r="B3" t="s">
         <v>19</v>
       </c>
